--- a/natmiOut/OldD0/LR-pairs_lrc2p/Nppc-Npr3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Nppc-Npr3.xlsx
@@ -525,52 +525,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.45131607808672</v>
+        <v>2.647218666666667</v>
       </c>
       <c r="H2">
-        <v>2.45131607808672</v>
+        <v>7.941656</v>
       </c>
       <c r="I2">
-        <v>0.4504475383974361</v>
+        <v>0.4640059894538357</v>
       </c>
       <c r="J2">
-        <v>0.4504475383974361</v>
+        <v>0.4640059894538356</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.17817281763464</v>
+        <v>1.195417</v>
       </c>
       <c r="N2">
-        <v>1.17817281763464</v>
+        <v>3.586251</v>
       </c>
       <c r="O2">
-        <v>0.7316196018943135</v>
+        <v>0.724690891256891</v>
       </c>
       <c r="P2">
-        <v>0.7316196018943135</v>
+        <v>0.7246908912568911</v>
       </c>
       <c r="Q2">
-        <v>2.888073970632526</v>
+        <v>3.164530196850667</v>
       </c>
       <c r="R2">
-        <v>2.888073970632526</v>
+        <v>28.480771771656</v>
       </c>
       <c r="S2">
-        <v>0.3295562487166057</v>
+        <v>0.3362609140458357</v>
       </c>
       <c r="T2">
-        <v>0.3295562487166057</v>
+        <v>0.3362609140458358</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,52 +587,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.45131607808672</v>
+        <v>2.647218666666667</v>
       </c>
       <c r="H3">
-        <v>2.45131607808672</v>
+        <v>7.941656</v>
       </c>
       <c r="I3">
-        <v>0.4504475383974361</v>
+        <v>0.4640059894538357</v>
       </c>
       <c r="J3">
-        <v>0.4504475383974361</v>
+        <v>0.4640059894538356</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.432189745894424</v>
+        <v>0.4541373333333333</v>
       </c>
       <c r="N3">
-        <v>0.432189745894424</v>
+        <v>1.362412</v>
       </c>
       <c r="O3">
-        <v>0.2683803981056865</v>
+        <v>0.275309108743109</v>
       </c>
       <c r="P3">
-        <v>0.2683803981056865</v>
+        <v>0.275309108743109</v>
       </c>
       <c r="Q3">
-        <v>1.059433672895216</v>
+        <v>1.202200826030222</v>
       </c>
       <c r="R3">
-        <v>1.059433672895216</v>
+        <v>10.819807434272</v>
       </c>
       <c r="S3">
-        <v>0.1208912896808304</v>
+        <v>0.1277450754079999</v>
       </c>
       <c r="T3">
-        <v>0.1208912896808304</v>
+        <v>0.1277450754079999</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,52 +649,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.99064079619836</v>
+        <v>3.057920333333333</v>
       </c>
       <c r="H4">
-        <v>2.99064079619836</v>
+        <v>9.173760999999999</v>
       </c>
       <c r="I4">
-        <v>0.5495524616025639</v>
+        <v>0.5359940105461642</v>
       </c>
       <c r="J4">
-        <v>0.5495524616025639</v>
+        <v>0.5359940105461642</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.17817281763464</v>
+        <v>1.195417</v>
       </c>
       <c r="N4">
-        <v>1.17817281763464</v>
+        <v>3.586251</v>
       </c>
       <c r="O4">
-        <v>0.7316196018943135</v>
+        <v>0.724690891256891</v>
       </c>
       <c r="P4">
-        <v>0.7316196018943135</v>
+        <v>0.7246908912568911</v>
       </c>
       <c r="Q4">
-        <v>3.523491693390125</v>
+        <v>3.655489951112334</v>
       </c>
       <c r="R4">
-        <v>3.523491693390125</v>
+        <v>32.899409560011</v>
       </c>
       <c r="S4">
-        <v>0.4020633531777078</v>
+        <v>0.3884299772110552</v>
       </c>
       <c r="T4">
-        <v>0.4020633531777078</v>
+        <v>0.3884299772110553</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,52 +711,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.99064079619836</v>
+        <v>3.057920333333333</v>
       </c>
       <c r="H5">
-        <v>2.99064079619836</v>
+        <v>9.173760999999999</v>
       </c>
       <c r="I5">
-        <v>0.5495524616025639</v>
+        <v>0.5359940105461642</v>
       </c>
       <c r="J5">
-        <v>0.5495524616025639</v>
+        <v>0.5359940105461642</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.432189745894424</v>
+        <v>0.4541373333333333</v>
       </c>
       <c r="N5">
-        <v>0.432189745894424</v>
+        <v>1.362412</v>
       </c>
       <c r="O5">
-        <v>0.2683803981056865</v>
+        <v>0.275309108743109</v>
       </c>
       <c r="P5">
-        <v>0.2683803981056865</v>
+        <v>0.275309108743109</v>
       </c>
       <c r="Q5">
-        <v>1.292524285770467</v>
+        <v>1.388715785725778</v>
       </c>
       <c r="R5">
-        <v>1.292524285770467</v>
+        <v>12.498442071532</v>
       </c>
       <c r="S5">
-        <v>0.1474891084248561</v>
+        <v>0.147564033335109</v>
       </c>
       <c r="T5">
-        <v>0.1474891084248561</v>
+        <v>0.147564033335109</v>
       </c>
     </row>
   </sheetData>
